--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="ManageFooterTextPage" sheetId="2" r:id="rId2"/>
+    <sheet name="AdminUsers" sheetId="3" r:id="rId2"/>
+    <sheet name="ManageFooterTextPage" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>username</t>
   </si>
@@ -61,6 +62,24 @@
   </si>
   <si>
     <t>example@example.com</t>
+  </si>
+  <si>
+    <t>usernamevalue</t>
+  </si>
+  <si>
+    <t>passwordvalue</t>
+  </si>
+  <si>
+    <t>usertypevalue</t>
+  </si>
+  <si>
+    <t>admintest123</t>
+  </si>
+  <si>
+    <t>admin@123</t>
+  </si>
+  <si>
+    <t>db</t>
   </si>
 </sst>
 </file>
@@ -429,7 +448,61 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -9,12 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="AdminUsers" sheetId="3" r:id="rId2"/>
-    <sheet name="ManageFooterTextPage" sheetId="2" r:id="rId3"/>
+    <sheet name="AdminUsers" sheetId="3" r:id="rId1"/>
+    <sheet name="Categorypage" sheetId="4" r:id="rId2"/>
+    <sheet name="LoginPage" sheetId="1" r:id="rId3"/>
+    <sheet name="ManageContactPage" sheetId="5" r:id="rId4"/>
+    <sheet name="ManageFooterTextPage" sheetId="2" r:id="rId5"/>
+    <sheet name="ManageNewsPage" sheetId="6" r:id="rId6"/>
+    <sheet name="ManagePagesPage" sheetId="7" r:id="rId7"/>
+    <sheet name="SubCategoryPage" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>username</t>
   </si>
@@ -58,9 +63,6 @@
     <t>phone</t>
   </si>
   <si>
-    <t>Plavelil House, Puthenpurackal, Kadapra p.o., Kumbanad</t>
-  </si>
-  <si>
     <t>example@example.com</t>
   </si>
   <si>
@@ -73,13 +75,79 @@
     <t>usertypevalue</t>
   </si>
   <si>
-    <t>admintest123</t>
-  </si>
-  <si>
     <t>admin@123</t>
   </si>
   <si>
     <t>db</t>
+  </si>
+  <si>
+    <t>categoryvalue</t>
+  </si>
+  <si>
+    <t>Phones</t>
+  </si>
+  <si>
+    <t>filevalue</t>
+  </si>
+  <si>
+    <t>C:\\Users\\akhilv\\Documents\\Annual.pdf</t>
+  </si>
+  <si>
+    <t>phonevalue</t>
+  </si>
+  <si>
+    <t>emailvalue</t>
+  </si>
+  <si>
+    <t>addressvalue</t>
+  </si>
+  <si>
+    <t>deliverytimevalue</t>
+  </si>
+  <si>
+    <t>deliverychargevalue</t>
+  </si>
+  <si>
+    <t>test@testing.com</t>
+  </si>
+  <si>
+    <t>abchouse</t>
+  </si>
+  <si>
+    <t>newscontent</t>
+  </si>
+  <si>
+    <t>test news</t>
+  </si>
+  <si>
+    <t>test news updated</t>
+  </si>
+  <si>
+    <t>stringtitle</t>
+  </si>
+  <si>
+    <t>akhil</t>
+  </si>
+  <si>
+    <t>subcattextfield</t>
+  </si>
+  <si>
+    <t>Cellphones</t>
+  </si>
+  <si>
+    <t>testingadmin</t>
+  </si>
+  <si>
+    <t>onetwo</t>
+  </si>
+  <si>
+    <t>onethree</t>
+  </si>
+  <si>
+    <t>threefour</t>
+  </si>
+  <si>
+    <t>Plavelil House</t>
   </si>
 </sst>
 </file>
@@ -115,11 +183,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,6 +469,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -443,22 +613,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,43 +638,56 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -537,13 +722,155 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>1234567890</v>
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="AdminUsers" sheetId="3" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>Cellphones</t>
   </si>
   <si>
-    <t>testingadmin</t>
-  </si>
-  <si>
     <t>onetwo</t>
   </si>
   <si>
@@ -148,16 +145,27 @@
   </si>
   <si>
     <t>Plavelil House</t>
+  </si>
+  <si>
+    <t>testingadmintest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,17 +188,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,12 +482,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
@@ -507,9 +520,9 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
@@ -517,6 +530,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -661,7 +677,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -670,10 +686,10 @@
         <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -722,13 +738,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -828,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -864,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
